--- a/Sweetener_Sales.xlsx
+++ b/Sweetener_Sales.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,170 +461,338 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44957</v>
+        <v>44592</v>
       </c>
       <c r="B2" t="n">
-        <v>2960</v>
+        <v>3463</v>
       </c>
       <c r="C2" t="n">
-        <v>2471</v>
+        <v>1454</v>
       </c>
       <c r="D2" t="n">
-        <v>1786</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44985</v>
+        <v>44620</v>
       </c>
       <c r="B3" t="n">
-        <v>2138</v>
+        <v>1165</v>
       </c>
       <c r="C3" t="n">
-        <v>2364</v>
+        <v>1774</v>
       </c>
       <c r="D3" t="n">
-        <v>1327</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45016</v>
+        <v>44651</v>
       </c>
       <c r="B4" t="n">
-        <v>2341</v>
+        <v>2657</v>
       </c>
       <c r="C4" t="n">
-        <v>2190</v>
+        <v>2865</v>
       </c>
       <c r="D4" t="n">
-        <v>1471</v>
+        <v>957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45046</v>
+        <v>44681</v>
       </c>
       <c r="B5" t="n">
-        <v>1086</v>
+        <v>3575</v>
       </c>
       <c r="C5" t="n">
-        <v>2263</v>
+        <v>2374</v>
       </c>
       <c r="D5" t="n">
-        <v>1507</v>
+        <v>742</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45077</v>
+        <v>44712</v>
       </c>
       <c r="B6" t="n">
-        <v>2104</v>
+        <v>1272</v>
       </c>
       <c r="C6" t="n">
-        <v>1084</v>
+        <v>1622</v>
       </c>
       <c r="D6" t="n">
-        <v>1135</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45107</v>
+        <v>44742</v>
       </c>
       <c r="B7" t="n">
-        <v>2840</v>
+        <v>2067</v>
       </c>
       <c r="C7" t="n">
-        <v>1065</v>
+        <v>2882</v>
       </c>
       <c r="D7" t="n">
-        <v>686</v>
+        <v>655</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45138</v>
+        <v>44773</v>
       </c>
       <c r="B8" t="n">
-        <v>2988</v>
+        <v>3107</v>
       </c>
       <c r="C8" t="n">
-        <v>1414</v>
+        <v>1450</v>
       </c>
       <c r="D8" t="n">
-        <v>1557</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45169</v>
+        <v>44804</v>
       </c>
       <c r="B9" t="n">
-        <v>1990</v>
+        <v>2460</v>
       </c>
       <c r="C9" t="n">
-        <v>2105</v>
+        <v>1461</v>
       </c>
       <c r="D9" t="n">
-        <v>1835</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45199</v>
+        <v>44834</v>
       </c>
       <c r="B10" t="n">
-        <v>2204</v>
+        <v>2711</v>
       </c>
       <c r="C10" t="n">
-        <v>1543</v>
+        <v>1699</v>
       </c>
       <c r="D10" t="n">
-        <v>796</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45230</v>
+        <v>44865</v>
       </c>
       <c r="B11" t="n">
-        <v>1659</v>
+        <v>2572</v>
       </c>
       <c r="C11" t="n">
-        <v>2110</v>
+        <v>3403</v>
       </c>
       <c r="D11" t="n">
-        <v>1408</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45260</v>
+        <v>44895</v>
       </c>
       <c r="B12" t="n">
-        <v>1471</v>
+        <v>1541</v>
       </c>
       <c r="C12" t="n">
-        <v>1192</v>
+        <v>1317</v>
       </c>
       <c r="D12" t="n">
-        <v>1722</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3705</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2050</v>
+      </c>
+      <c r="D13" t="n">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2820</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3356</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44985</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1392</v>
+      </c>
+      <c r="D15" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45016</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3471</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2038</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45046</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3995</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1845</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45077</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2872</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1630</v>
+      </c>
+      <c r="D18" t="n">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2844</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2652</v>
+      </c>
+      <c r="D19" t="n">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3640</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45169</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2822</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1493</v>
+      </c>
+      <c r="D21" t="n">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45199</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2321</v>
+      </c>
+      <c r="D22" t="n">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2454</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3013</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45260</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3269</v>
+      </c>
+      <c r="C24" t="n">
+        <v>808</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>45291</v>
       </c>
-      <c r="B13" t="n">
-        <v>2895</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1783</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1414</v>
+      <c r="B25" t="n">
+        <v>1309</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2273</v>
       </c>
     </row>
   </sheetData>
